--- a/data/WHO/XLSX files/report 87 - 16 Apr 2020.xlsx
+++ b/data/WHO/XLSX files/report 87 - 16 Apr 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Desktop\covid data WHO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lauernd\Documents\R\workspace\COVID-19_epi_info\data\WHO\XLSX files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67874268-0A37-4CAA-B65B-B58B740D3DC5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8367792-15E3-427A-9EB3-4ED7F17ECF9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="510" windowWidth="15615" windowHeight="9135" xr2:uid="{215388D3-447A-4AA9-8AB9-1870246795A8}"/>
+    <workbookView xWindow="2760" yWindow="-12810" windowWidth="15615" windowHeight="9135" xr2:uid="{215388D3-447A-4AA9-8AB9-1870246795A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -732,7 +732,7 @@
     <t>Yemen</t>
   </si>
   <si>
-    <t>Saint Barthélemy</t>
+    <t>Saint Barthelemy</t>
   </si>
 </sst>
 </file>
@@ -1114,7 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10F8E3E-3B86-4A98-BC35-BE3C4ED8FC3B}">
   <dimension ref="A1:G213"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
